--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A15_03_電子帳簿仕訳の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A15_03_電子帳簿仕訳の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\30_テストフェーズ\40_開発残課題\02_BIPのパフォーマンス課題対応\20_恒久対応\20_対応中\XXCFO019A15_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ2)" sheetId="10" r:id="rId7"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3) " sheetId="11" r:id="rId8"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="12" r:id="rId9"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId10"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId11"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="13" r:id="rId10"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId11"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -31,11 +32,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="190">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1036,17 +1038,165 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ5</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①、②左記の通り</t>
+    <rPh sb="3" eb="5">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD001(前回処理日更新)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_03から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCFO019A15_03から共通処理XXCCD001が実行され、正常終了する。
+②プロファイルオプション値テーブルが更新される。</t>
+    <rPh sb="17" eb="21">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A15_03_電子帳簿仕訳の情報系システム連携_OIC統合_エビデンス(シナリオ5).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_03を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力パラメータ：無し</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_03(電子帳簿仕訳の情報系システム連携)</t>
+    <rPh sb="15" eb="19">
+      <t>デンシチョウボ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,6 +1377,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1900,7 +2065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2252,6 +2417,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2297,6 +2480,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -5484,6 +5668,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30449520"/>
+          <a:ext cx="6939915" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33150810"/>
+          <a:ext cx="6939915" cy="2806065"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29630370"/>
+          <a:ext cx="3303270" cy="459105"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -5828,7 +6737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -5838,7 +6747,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5846,7 +6755,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5855,7 +6764,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5864,67 +6773,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="128" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="129" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="129" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="129" t="s">
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -5932,11 +6841,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -5944,23 +6853,23 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>72</v>
       </c>
@@ -5968,25 +6877,25 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -5998,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -6026,12 +6935,332 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="26" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="75">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="75">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="75">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="75">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="71"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="125" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G15">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="26" customWidth="1"/>
@@ -6041,7 +7270,7 @@
     <col min="9" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -6051,51 +7280,51 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="133" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="139" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="137" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="134"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="140"/>
       <c r="C6" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="132"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="142"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="138"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="65" t="s">
         <v>70</v>
       </c>
@@ -6106,7 +7335,7 @@
       <c r="G7" s="44"/>
       <c r="H7" s="66"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="67"/>
       <c r="C8" s="41"/>
       <c r="D8" s="43"/>
@@ -6115,7 +7344,7 @@
       <c r="G8" s="47"/>
       <c r="H8" s="68"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="67"/>
       <c r="C9" s="45"/>
       <c r="D9" s="41"/>
@@ -6124,7 +7353,7 @@
       <c r="G9" s="51"/>
       <c r="H9" s="68"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -6133,7 +7362,7 @@
       <c r="G10" s="47"/>
       <c r="H10" s="68"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="67"/>
       <c r="C11" s="41"/>
       <c r="D11" s="45"/>
@@ -6142,7 +7371,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="69"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="67"/>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -6151,7 +7380,7 @@
       <c r="G12" s="51"/>
       <c r="H12" s="69"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="67"/>
       <c r="C13" s="41"/>
       <c r="D13" s="53"/>
@@ -6160,7 +7389,7 @@
       <c r="G13" s="47"/>
       <c r="H13" s="70"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="67"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -6169,7 +7398,7 @@
       <c r="G14" s="51"/>
       <c r="H14" s="69"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="67"/>
       <c r="C15" s="41"/>
       <c r="D15" s="53"/>
@@ -6178,7 +7407,7 @@
       <c r="G15" s="47"/>
       <c r="H15" s="70"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="67"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -6187,7 +7416,7 @@
       <c r="G16" s="51"/>
       <c r="H16" s="68"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="67"/>
       <c r="C17" s="41"/>
       <c r="D17" s="53"/>
@@ -6196,7 +7425,7 @@
       <c r="G17" s="47"/>
       <c r="H17" s="69"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="67"/>
       <c r="C18" s="45"/>
       <c r="D18" s="41"/>
@@ -6205,7 +7434,7 @@
       <c r="G18" s="51"/>
       <c r="H18" s="68"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="67"/>
       <c r="C19" s="41"/>
       <c r="D19" s="45"/>
@@ -6214,7 +7443,7 @@
       <c r="G19" s="47"/>
       <c r="H19" s="69"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="67"/>
       <c r="C20" s="45"/>
       <c r="D20" s="41"/>
@@ -6223,7 +7452,7 @@
       <c r="G20" s="51"/>
       <c r="H20" s="68"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="67"/>
       <c r="C21" s="41"/>
       <c r="D21" s="45"/>
@@ -6232,7 +7461,7 @@
       <c r="G21" s="47"/>
       <c r="H21" s="69"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="67"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -6241,7 +7470,7 @@
       <c r="G22" s="51"/>
       <c r="H22" s="68"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="65"/>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
@@ -6250,7 +7479,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="68"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
@@ -6280,14 +7509,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="26" customWidth="1"/>
@@ -6298,7 +7527,7 @@
     <col min="8" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -6307,25 +7536,25 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58"/>
       <c r="B7" s="109" t="s">
         <v>59</v>
@@ -6346,7 +7575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="59"/>
       <c r="C8" s="60"/>
@@ -6355,7 +7584,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="62"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -6364,23 +7593,23 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
       <c r="B14" s="109" t="s">
         <v>59</v>
@@ -6401,7 +7630,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="63"/>
       <c r="C15" s="38"/>
@@ -6410,7 +7639,7 @@
       <c r="F15" s="39"/>
       <c r="G15" s="64"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="63"/>
       <c r="C16" s="38"/>
@@ -6419,7 +7648,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="64"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="63"/>
       <c r="C17" s="38"/>
@@ -6428,7 +7657,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="64"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="59"/>
       <c r="C18" s="60"/>
@@ -6456,16 +7685,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -6476,29 +7705,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="98" t="s">
         <v>10</v>
       </c>
@@ -6516,7 +7745,7 @@
       <c r="H7" s="100"/>
       <c r="I7" s="101"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="90">
         <v>44992</v>
       </c>
@@ -6534,17 +7763,25 @@
       <c r="H8" s="22"/>
       <c r="I8" s="91"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="90"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="129">
+        <v>45561</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="131" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="91"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="92"/>
       <c r="C10" s="93"/>
       <c r="D10" s="94"/>
@@ -6554,16 +7791,16 @@
       <c r="H10" s="96"/>
       <c r="I10" s="97"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
     </row>
   </sheetData>
@@ -6585,13 +7822,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="26" customWidth="1"/>
     <col min="14" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -6606,156 +7843,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="37" t="s">
         <v>80</v>
       </c>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="26" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="26" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="26" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="29"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="26" t="s">
         <v>27</v>
       </c>
       <c r="M30" s="29"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="26" t="s">
         <v>28</v>
       </c>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="26" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="29"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="26" t="s">
         <v>30</v>
       </c>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="26" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="29"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="29"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="29"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="29"/>
     </row>
   </sheetData>
@@ -6773,13 +8010,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="81"/>
     <col min="4" max="4" width="22.125" style="81" customWidth="1"/>
@@ -6788,7 +8026,7 @@
     <col min="7" max="16384" width="2.75" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="80"/>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -6796,7 +8034,7 @@
       <c r="E1" s="80"/>
       <c r="F1" s="80"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
         <v>71</v>
       </c>
@@ -6806,7 +8044,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="78"/>
       <c r="B3" s="78"/>
       <c r="C3" s="82"/>
@@ -6814,7 +8052,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
     </row>
-    <row r="4" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
@@ -6824,7 +8062,7 @@
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
     </row>
-    <row r="5" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -6832,7 +8070,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
     </row>
-    <row r="6" spans="1:6" s="84" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="84" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="83"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
@@ -6844,7 +8082,7 @@
       </c>
       <c r="F6" s="83"/>
     </row>
-    <row r="7" spans="1:6" s="84" customFormat="1">
+    <row r="7" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="83"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -6856,7 +8094,7 @@
       </c>
       <c r="F7" s="83"/>
     </row>
-    <row r="8" spans="1:6" s="84" customFormat="1">
+    <row r="8" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="83"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -6868,7 +8106,7 @@
       </c>
       <c r="F8" s="83"/>
     </row>
-    <row r="9" spans="1:6" s="84" customFormat="1">
+    <row r="9" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="83"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
@@ -6880,7 +8118,7 @@
       </c>
       <c r="F9" s="83"/>
     </row>
-    <row r="10" spans="1:6" s="84" customFormat="1">
+    <row r="10" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="83"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83"/>
@@ -6892,15 +8130,19 @@
       </c>
       <c r="F10" s="83"/>
     </row>
-    <row r="11" spans="1:6" s="84" customFormat="1">
+    <row r="11" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="83"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="86"/>
+      <c r="D11" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>170</v>
+      </c>
       <c r="F11" s="83"/>
     </row>
-    <row r="12" spans="1:6" s="84" customFormat="1">
+    <row r="12" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="83"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83"/>
@@ -6908,7 +8150,7 @@
       <c r="E12" s="86"/>
       <c r="F12" s="83"/>
     </row>
-    <row r="13" spans="1:6" s="84" customFormat="1">
+    <row r="13" spans="1:6" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="83"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
@@ -6916,7 +8158,7 @@
       <c r="E13" s="86"/>
       <c r="F13" s="83"/>
     </row>
-    <row r="14" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="14" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A14" s="83"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
@@ -6924,7 +8166,7 @@
       <c r="E14" s="86"/>
       <c r="F14" s="83"/>
     </row>
-    <row r="15" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="83"/>
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
@@ -6932,7 +8174,7 @@
       <c r="E15" s="86"/>
       <c r="F15" s="83"/>
     </row>
-    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="83"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
@@ -6940,7 +8182,7 @@
       <c r="E16" s="86"/>
       <c r="F16" s="83"/>
     </row>
-    <row r="17" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="84" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83"/>
@@ -6948,7 +8190,7 @@
       <c r="E17" s="89"/>
       <c r="F17" s="83"/>
     </row>
-    <row r="18" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="83"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
@@ -6956,7 +8198,7 @@
       <c r="E18" s="87"/>
       <c r="F18" s="87"/>
     </row>
-    <row r="19" spans="1:6" s="84" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="84" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
@@ -6971,6 +8213,7 @@
     <hyperlink ref="D8" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
+    <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -6990,7 +8233,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="26" customWidth="1"/>
@@ -6998,51 +8241,51 @@
     <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="32"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="126" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1">
-      <c r="B7" s="130" t="s">
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="130"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="136"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="127"/>
       <c r="C8" s="127"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+    <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="115" customFormat="1" ht="14.25" thickBot="1">
+    <row r="11" spans="1:4" s="115" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="113" t="s">
         <v>76</v>
       </c>
@@ -7050,7 +8293,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21.75" thickBot="1">
+    <row r="12" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="119" t="s">
         <v>145</v>
       </c>
@@ -7058,21 +8301,21 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="115" customFormat="1">
+    <row r="13" spans="1:4" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="32"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+    <row r="15" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+    <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="113" t="s">
         <v>76</v>
       </c>
@@ -7080,7 +8323,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="32.25" thickBot="1">
+    <row r="17" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="119" t="s">
         <v>147</v>
       </c>
@@ -7088,7 +8331,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="32.25" thickBot="1">
+    <row r="18" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="119" t="s">
         <v>145</v>
       </c>
@@ -7096,7 +8339,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="32.25" thickBot="1">
+    <row r="19" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="119" t="s">
         <v>148</v>
       </c>
@@ -7104,7 +8347,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="42.75" thickBot="1">
+    <row r="20" spans="2:3" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="119" t="s">
         <v>148</v>
       </c>
@@ -7112,15 +8355,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="32"/>
     </row>
-    <row r="22" spans="2:3" ht="14.25" thickBot="1">
+    <row r="22" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="14.25" thickBot="1">
+    <row r="23" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="113" t="s">
         <v>76</v>
       </c>
@@ -7128,7 +8371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="32.25" thickBot="1">
+    <row r="24" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="119" t="s">
         <v>149</v>
       </c>
@@ -7136,7 +8379,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="32.25" thickBot="1">
+    <row r="25" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="119" t="s">
         <v>149</v>
       </c>
@@ -7144,7 +8387,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="32.25" thickBot="1">
+    <row r="26" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="119" t="s">
         <v>150</v>
       </c>
@@ -7152,28 +8395,28 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="32"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
     </row>
@@ -7201,7 +8444,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -7214,7 +8457,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -7225,35 +8468,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -7279,7 +8522,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>100</v>
@@ -7294,7 +8537,7 @@
       <c r="H11" s="50"/>
       <c r="I11" s="77"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63" t="s">
         <v>102</v>
@@ -7321,7 +8564,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="63"/>
       <c r="C13" s="45"/>
@@ -7342,7 +8585,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="63"/>
       <c r="C14" s="45"/>
@@ -7363,7 +8606,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -7383,7 +8626,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -7393,7 +8636,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="63"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
@@ -7403,7 +8646,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="63"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -7413,7 +8656,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -7423,7 +8666,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="63"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
@@ -7433,7 +8676,7 @@
       <c r="H20" s="45"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
@@ -7444,7 +8687,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="37"/>
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
@@ -7455,7 +8698,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="63"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -7465,7 +8708,7 @@
       <c r="H23" s="45"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
@@ -7476,7 +8719,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
@@ -7487,7 +8730,7 @@
       <c r="H25" s="56"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="63"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -7497,7 +8740,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -7507,7 +8750,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -7517,7 +8760,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="63"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
@@ -7527,7 +8770,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -7537,7 +8780,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="63"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -7547,7 +8790,7 @@
       <c r="H31" s="45"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="63"/>
       <c r="C32" s="116"/>
       <c r="D32" s="45"/>
@@ -7557,7 +8800,7 @@
       <c r="H32" s="45"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="63"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -7567,7 +8810,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="63"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -7577,7 +8820,7 @@
       <c r="H34" s="45"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="67"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -7587,7 +8830,7 @@
       <c r="H35" s="45"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="67"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -7597,7 +8840,7 @@
       <c r="H36" s="45"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="71"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -7607,7 +8850,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -7617,7 +8860,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -7627,7 +8870,7 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -7637,7 +8880,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
         <v>48</v>
       </c>
@@ -7647,7 +8890,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -7657,7 +8900,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="125" t="s">
         <v>85</v>
       </c>
@@ -7669,7 +8912,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -7679,7 +8922,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -7689,7 +8932,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -7699,7 +8942,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -7735,7 +8978,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -7748,7 +8991,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -7759,35 +9002,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -7813,7 +9056,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>112</v>
@@ -7828,7 +9071,7 @@
       <c r="H11" s="45"/>
       <c r="I11" s="75"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="63" t="s">
         <v>114</v>
@@ -7855,7 +9098,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="63"/>
       <c r="C13" s="45"/>
@@ -7876,7 +9119,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="63"/>
       <c r="C14" s="45"/>
@@ -7897,7 +9140,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105">
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -7917,7 +9160,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="63" t="s">
         <v>116</v>
       </c>
@@ -7931,7 +9174,7 @@
       <c r="H16" s="45"/>
       <c r="I16" s="75"/>
     </row>
-    <row r="17" spans="1:9" ht="84">
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B17" s="63" t="s">
         <v>118</v>
       </c>
@@ -7957,7 +9200,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="73.5">
+    <row r="18" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B18" s="63"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -7977,7 +9220,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B19" s="63" t="s">
         <v>119</v>
       </c>
@@ -7991,7 +9234,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9" ht="84">
+    <row r="20" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B20" s="63" t="s">
         <v>120</v>
       </c>
@@ -8017,7 +9260,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="73.5">
+    <row r="21" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B21" s="63"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
@@ -8037,7 +9280,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B22" s="63" t="s">
         <v>121</v>
       </c>
@@ -8051,7 +9294,7 @@
       <c r="H22" s="56"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9" ht="84">
+    <row r="23" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B23" s="63" t="s">
         <v>122</v>
       </c>
@@ -8077,7 +9320,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="73.5">
+    <row r="24" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -8097,7 +9340,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -8107,7 +9350,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="63"/>
       <c r="C26" s="116"/>
       <c r="D26" s="45"/>
@@ -8117,7 +9360,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -8127,7 +9370,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="37"/>
       <c r="B28" s="63"/>
       <c r="C28" s="116"/>
@@ -8138,7 +9381,7 @@
       <c r="H28" s="56"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="63"/>
       <c r="C29" s="45"/>
@@ -8149,7 +9392,7 @@
       <c r="H29" s="56"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -8159,7 +9402,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="37"/>
       <c r="B31" s="63"/>
       <c r="C31" s="45"/>
@@ -8170,7 +9413,7 @@
       <c r="H31" s="56"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="37"/>
       <c r="B32" s="63"/>
       <c r="C32" s="45"/>
@@ -8181,7 +9424,7 @@
       <c r="H32" s="56"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="63"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -8191,7 +9434,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="63"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -8201,7 +9444,7 @@
       <c r="H34" s="45"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="63"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -8211,7 +9454,7 @@
       <c r="H35" s="45"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="63"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
@@ -8221,7 +9464,7 @@
       <c r="H36" s="45"/>
       <c r="I36" s="75"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="63"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
@@ -8231,7 +9474,7 @@
       <c r="H37" s="45"/>
       <c r="I37" s="75"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="63"/>
       <c r="C38" s="116"/>
       <c r="D38" s="45"/>
@@ -8241,7 +9484,7 @@
       <c r="H38" s="45"/>
       <c r="I38" s="75"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="63"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
@@ -8251,7 +9494,7 @@
       <c r="H39" s="45"/>
       <c r="I39" s="75"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="67"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -8261,7 +9504,7 @@
       <c r="H40" s="45"/>
       <c r="I40" s="75"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="67"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -8271,7 +9514,7 @@
       <c r="H41" s="45"/>
       <c r="I41" s="75"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="67"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -8281,7 +9524,7 @@
       <c r="H42" s="45"/>
       <c r="I42" s="75"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25" thickBot="1">
+    <row r="43" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="71"/>
       <c r="C43" s="46"/>
       <c r="D43" s="46"/>
@@ -8291,7 +9534,7 @@
       <c r="H43" s="46"/>
       <c r="I43" s="76"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -8301,7 +9544,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -8311,7 +9554,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9" ht="6" customHeight="1">
+    <row r="46" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
@@ -8321,7 +9564,7 @@
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
     </row>
-    <row r="47" spans="1:9" ht="14.25">
+    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
         <v>48</v>
       </c>
@@ -8331,7 +9574,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -8341,7 +9584,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -8351,7 +9594,7 @@
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
@@ -8361,7 +9604,7 @@
       <c r="H50" s="34"/>
       <c r="I50" s="34"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
@@ -8371,7 +9614,7 @@
       <c r="H51" s="34"/>
       <c r="I51" s="34"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
@@ -8381,7 +9624,7 @@
       <c r="H52" s="34"/>
       <c r="I52" s="34"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
@@ -8417,7 +9660,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -8430,7 +9673,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -8441,35 +9684,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -8495,7 +9738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="63" t="s">
         <v>127</v>
@@ -8510,7 +9753,7 @@
       <c r="H11" s="117"/>
       <c r="I11" s="124"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="63" t="s">
         <v>129</v>
       </c>
@@ -8536,7 +9779,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="63"/>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -8556,7 +9799,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="63"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -8576,7 +9819,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="63"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -8596,7 +9839,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B16" s="63"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -8616,7 +9859,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="63" t="s">
         <v>132</v>
       </c>
@@ -8630,7 +9873,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9" ht="84">
+    <row r="18" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B18" s="63" t="s">
         <v>134</v>
       </c>
@@ -8656,7 +9899,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="73.5">
+    <row r="19" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B19" s="63"/>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -8676,7 +9919,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A20" s="37"/>
       <c r="B20" s="63" t="s">
         <v>135</v>
@@ -8691,7 +9934,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9" ht="84">
+    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
       <c r="B21" s="63" t="s">
         <v>137</v>
@@ -8718,7 +9961,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="73.5">
+    <row r="22" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B22" s="63"/>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -8738,7 +9981,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="37"/>
       <c r="B23" s="63"/>
       <c r="C23" s="116"/>
@@ -8749,7 +9992,7 @@
       <c r="H23" s="56"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
       <c r="B24" s="63"/>
       <c r="C24" s="45"/>
@@ -8760,7 +10003,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="63"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
@@ -8770,7 +10013,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="63"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -8780,7 +10023,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -8790,7 +10033,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -8800,7 +10043,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="63"/>
       <c r="C29" s="116"/>
       <c r="D29" s="45"/>
@@ -8810,7 +10053,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -8820,7 +10063,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="67"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -8830,7 +10073,7 @@
       <c r="H31" s="45"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="67"/>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
@@ -8840,7 +10083,7 @@
       <c r="H32" s="45"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="67"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -8850,7 +10093,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="71"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -8860,7 +10103,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -8870,7 +10113,7 @@
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -8880,7 +10123,7 @@
       <c r="H36" s="34"/>
       <c r="I36" s="34"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
@@ -8890,7 +10133,7 @@
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="31" t="s">
         <v>48</v>
       </c>
@@ -8900,7 +10143,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -8910,7 +10153,7 @@
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -8920,7 +10163,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -8930,7 +10173,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -8940,7 +10183,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -8950,7 +10193,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -8986,7 +10229,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="26" customWidth="1"/>
@@ -8999,7 +10242,7 @@
     <col min="10" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9010,35 +10253,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>40</v>
       </c>
@@ -9064,7 +10307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="122" t="s">
         <v>90</v>
@@ -9079,7 +10322,7 @@
       <c r="H11" s="117"/>
       <c r="I11" s="124"/>
     </row>
-    <row r="12" spans="1:9" ht="73.5">
+    <row r="12" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B12" s="122" t="s">
         <v>91</v>
       </c>
@@ -9105,7 +10348,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="122"/>
       <c r="C13" s="123"/>
       <c r="D13" s="118"/>
@@ -9125,7 +10368,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="122"/>
       <c r="C14" s="45"/>
       <c r="D14" s="118"/>
@@ -9145,7 +10388,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="122"/>
       <c r="C15" s="123"/>
       <c r="D15" s="118"/>
@@ -9165,7 +10408,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="73.5">
+    <row r="16" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
       <c r="B16" s="122"/>
       <c r="C16" s="45"/>
       <c r="D16" s="118"/>
@@ -9185,7 +10428,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="122"/>
       <c r="C17" s="123"/>
       <c r="D17" s="118"/>
@@ -9195,7 +10438,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="75"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="122"/>
       <c r="C18" s="45"/>
       <c r="D18" s="118"/>
@@ -9205,7 +10448,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="75"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="122"/>
       <c r="C19" s="45"/>
       <c r="D19" s="118"/>
@@ -9215,7 +10458,7 @@
       <c r="H19" s="45"/>
       <c r="I19" s="75"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="37"/>
       <c r="B20" s="122"/>
       <c r="C20" s="45"/>
@@ -9226,7 +10469,7 @@
       <c r="H20" s="56"/>
       <c r="I20" s="75"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="37"/>
       <c r="B21" s="122"/>
       <c r="C21" s="45"/>
@@ -9237,7 +10480,7 @@
       <c r="H21" s="56"/>
       <c r="I21" s="75"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="122"/>
       <c r="C22" s="45"/>
       <c r="D22" s="118"/>
@@ -9247,7 +10490,7 @@
       <c r="H22" s="45"/>
       <c r="I22" s="75"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="37"/>
       <c r="B23" s="122"/>
       <c r="C23" s="45"/>
@@ -9258,7 +10501,7 @@
       <c r="H23" s="56"/>
       <c r="I23" s="75"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="37"/>
       <c r="B24" s="122"/>
       <c r="C24" s="45"/>
@@ -9269,7 +10512,7 @@
       <c r="H24" s="56"/>
       <c r="I24" s="75"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="122"/>
       <c r="C25" s="45"/>
       <c r="D25" s="118"/>
@@ -9279,7 +10522,7 @@
       <c r="H25" s="45"/>
       <c r="I25" s="75"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="122"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
@@ -9289,7 +10532,7 @@
       <c r="H26" s="45"/>
       <c r="I26" s="75"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="63"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
@@ -9299,7 +10542,7 @@
       <c r="H27" s="45"/>
       <c r="I27" s="75"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="63"/>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
@@ -9309,7 +10552,7 @@
       <c r="H28" s="45"/>
       <c r="I28" s="75"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="63"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
@@ -9319,7 +10562,7 @@
       <c r="H29" s="45"/>
       <c r="I29" s="75"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="63"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -9329,7 +10572,7 @@
       <c r="H30" s="45"/>
       <c r="I30" s="75"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="63"/>
       <c r="C31" s="116"/>
       <c r="D31" s="45"/>
@@ -9339,7 +10582,7 @@
       <c r="H31" s="45"/>
       <c r="I31" s="75"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="63"/>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
@@ -9349,7 +10592,7 @@
       <c r="H32" s="45"/>
       <c r="I32" s="75"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="67"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -9359,7 +10602,7 @@
       <c r="H33" s="45"/>
       <c r="I33" s="75"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="67"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -9369,7 +10612,7 @@
       <c r="H34" s="45"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="67"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
@@ -9379,7 +10622,7 @@
       <c r="H35" s="45"/>
       <c r="I35" s="75"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="71"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -9389,7 +10632,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
@@ -9399,7 +10642,7 @@
       <c r="H37" s="34"/>
       <c r="I37" s="34"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -9409,7 +10652,7 @@
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
@@ -9419,7 +10662,7 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="31" t="s">
         <v>48</v>
       </c>
@@ -9429,7 +10672,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -9439,7 +10682,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -9449,7 +10692,7 @@
       <c r="H42" s="34"/>
       <c r="I42" s="34"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -9459,7 +10702,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -9469,7 +10712,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -9479,7 +10722,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
